--- a/data/trans_dic/P32-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32-Habitat-trans_dic.xlsx
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.002424353474004809</v>
+        <v>0.002417550378896656</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0455544396417334</v>
+        <v>0.04516030402706742</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01870934444773958</v>
+        <v>0.01823356439328372</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01184052110499334</v>
+        <v>0.01078234866347251</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.005327776499014764</v>
+        <v>0.005331549378555246</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.009236966917016034</v>
+        <v>0.009725968425389355</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.004075257565750103</v>
+        <v>0.004128836199747318</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.001700761675358756</v>
+        <v>0.001736953586200595</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03641011079631607</v>
+        <v>0.03478528833347077</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02001728315086205</v>
+        <v>0.01970776965136485</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01087109786729576</v>
+        <v>0.01098206942560859</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02634408300862118</v>
+        <v>0.02733619242409345</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09506482522616005</v>
+        <v>0.09132210527212413</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05499062539929887</v>
+        <v>0.0526854464747346</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03984559275855923</v>
+        <v>0.03890295068200694</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.04549976390632438</v>
+        <v>0.04926260160073655</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06017293729743577</v>
+        <v>0.05861957918424901</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03732406769555772</v>
+        <v>0.03777006214802685</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01961650821650672</v>
+        <v>0.01916779954624768</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0722942114751441</v>
+        <v>0.0725305304607516</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04795703859483445</v>
+        <v>0.04794938333129299</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03140858882208915</v>
+        <v>0.03417221376323388</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01686053497510027</v>
+        <v>0.01627389965625499</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03345328751140027</v>
+        <v>0.03281960473561519</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03699571508927872</v>
+        <v>0.03711429103305037</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03844620618057128</v>
+        <v>0.03740260828122102</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.003598503483023029</v>
+        <v>0.003599998483350486</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0115095208074498</v>
+        <v>0.011494460823959</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02736607983084669</v>
+        <v>0.02794194748245765</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01271417492832791</v>
+        <v>0.01290663357436661</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02525554973891904</v>
+        <v>0.02558764588510233</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03019878958544815</v>
+        <v>0.03178706127590229</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03967872992492161</v>
+        <v>0.03996986294923415</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04416335436235115</v>
+        <v>0.04493366502299023</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07222814532652992</v>
+        <v>0.07283067174526497</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07798647555336108</v>
+        <v>0.07933899948414956</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08848042212836811</v>
+        <v>0.08645132410442584</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02694278505877433</v>
+        <v>0.02747030735674143</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03955498715997578</v>
+        <v>0.04205485914135653</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0447327364695399</v>
+        <v>0.04667442407547943</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08762536788102733</v>
+        <v>0.09158968428778543</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03453723241799418</v>
+        <v>0.03260794477075113</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05402163196639929</v>
+        <v>0.05423427006756851</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05986803775243249</v>
+        <v>0.06093079372118083</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07974035961115664</v>
+        <v>0.07972823265118997</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.04816183822068484</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07676709590032348</v>
+        <v>0.07676709590032346</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01472556597375282</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02597305860453634</v>
+        <v>0.02565337286174714</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05911002166710915</v>
+        <v>0.056921561973243</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02939545903370886</v>
+        <v>0.02937043626097969</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04884199936366846</v>
+        <v>0.04930969456855882</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.004779240870576939</v>
+        <v>0.004774492039581768</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.008847033516042461</v>
+        <v>0.008922368056518876</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0253399811794005</v>
+        <v>0.02762364288527727</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0207740427798161</v>
+        <v>0.02029057076219232</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04634790518562358</v>
+        <v>0.04517602706369637</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02534785806975845</v>
+        <v>0.02525467632555798</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04861975183416833</v>
+        <v>0.0472300866458505</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07377008531913658</v>
+        <v>0.07080395563333866</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1190086600188979</v>
+        <v>0.1131615136746645</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07783443536264525</v>
+        <v>0.07807500178539474</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1134520396532494</v>
+        <v>0.1178655779254817</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05771416444789187</v>
+        <v>0.04561397390697493</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04333629067128511</v>
+        <v>0.04437873150895101</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04972234782046678</v>
+        <v>0.05701256322435553</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.107103118272875</v>
+        <v>0.1045840390398509</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05640701180727297</v>
+        <v>0.05651018799411955</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08655306135591331</v>
+        <v>0.08566910594152646</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05849652379636631</v>
+        <v>0.06096248420532639</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09886746752789702</v>
+        <v>0.09873599725687419</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.0482075386590716</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.01902914602793891</v>
+        <v>0.0190291460279389</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.03002190366217528</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01622389432408326</v>
+        <v>0.01795905266002432</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05242035852859264</v>
+        <v>0.05558569717870434</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04793712611844837</v>
+        <v>0.04720474713782554</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06783173746113511</v>
+        <v>0.06974699754885537</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01436567408049654</v>
+        <v>0.01334490738354702</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01500163648805758</v>
+        <v>0.01317792397449393</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02978060665013939</v>
+        <v>0.0297377378268049</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.00755288039584526</v>
+        <v>0.007771569158589317</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01937634058421606</v>
+        <v>0.01962711449280917</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04174537367594888</v>
+        <v>0.04255492047964946</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04464313011836869</v>
+        <v>0.04506006661763261</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04791494646023715</v>
+        <v>0.04698585903050923</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0467390008596165</v>
+        <v>0.05005518399060387</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1023809273470337</v>
+        <v>0.1013311303117949</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08965046070725695</v>
+        <v>0.09144105652248602</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1305076919578153</v>
+        <v>0.1299681473023806</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05897726942213271</v>
+        <v>0.05598170704667031</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05413448831582325</v>
+        <v>0.05605837605607551</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07501625133810549</v>
+        <v>0.07555287297781998</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04645441964631394</v>
+        <v>0.05206179626806089</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04463482083881316</v>
+        <v>0.04461289510086675</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07454686542277254</v>
+        <v>0.07536799289262647</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07622619162419493</v>
+        <v>0.07560816024150439</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08881023048192815</v>
+        <v>0.08821896553456175</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.05257904566661846</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06497170862264531</v>
+        <v>0.0649717086226453</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.01479901423863817</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02008156014328001</v>
+        <v>0.02065811607596086</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05652300715525838</v>
+        <v>0.05676929274035208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04294504020214137</v>
+        <v>0.042748991621025</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05230373750540503</v>
+        <v>0.05318676369170892</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.007485294750925677</v>
+        <v>0.007970974446670739</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01353804092816569</v>
+        <v>0.01331594068104769</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02391038757732943</v>
+        <v>0.02259258061296654</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02429401313399493</v>
+        <v>0.02329307808691432</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01829445641293876</v>
+        <v>0.0175290413648806</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04348286815153993</v>
+        <v>0.04411528552267046</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03841858694651847</v>
+        <v>0.03832384104168201</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04572191984323507</v>
+        <v>0.04414695530833349</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03492730951804354</v>
+        <v>0.03590607015298731</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07999481895838999</v>
+        <v>0.07959436195251264</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06420759252150615</v>
+        <v>0.06389590971081222</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07937799644732528</v>
+        <v>0.07928383363642615</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02579550541961917</v>
+        <v>0.02617531041399257</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03367722755220391</v>
+        <v>0.03297407407012681</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04550556290638092</v>
+        <v>0.04485178710969769</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05281269096231031</v>
+        <v>0.04987742228309101</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03009977908229163</v>
+        <v>0.02978795583620871</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.06084198819087693</v>
+        <v>0.06047595843470529</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05387727321360513</v>
+        <v>0.0533740069602535</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0654815182361468</v>
+        <v>0.06480990288459665</v>
       </c>
     </row>
     <row r="19">
@@ -1596,38 +1596,38 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>19464</v>
+        <v>19296</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8040</v>
+        <v>7836</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4191</v>
+        <v>3816</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
         <v>935</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1689</v>
+        <v>1779</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1054</v>
+        <v>1077</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>21944</v>
+        <v>20964</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>12263</v>
+        <v>12073</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5729</v>
+        <v>5788</v>
       </c>
     </row>
     <row r="7">
@@ -1638,38 +1638,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11573</v>
+        <v>12009</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>40618</v>
+        <v>39019</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23631</v>
+        <v>22641</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14103</v>
+        <v>13769</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>7981</v>
+        <v>8641</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11004</v>
+        <v>10720</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>6460</v>
+        <v>6537</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>12161</v>
+        <v>11883</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>43570</v>
+        <v>43713</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>29379</v>
+        <v>29374</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>16553</v>
+        <v>18009</v>
       </c>
     </row>
     <row r="8">
@@ -1772,16 +1772,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9811</v>
+        <v>9470</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19816</v>
+        <v>19441</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21177</v>
+        <v>21245</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>19251</v>
+        <v>18728</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1790,22 +1790,22 @@
         <v>1067</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3709</v>
+        <v>3704</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6108</v>
+        <v>6236</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10952</v>
+        <v>11118</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>22448</v>
+        <v>22743</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>27018</v>
+        <v>28439</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>28724</v>
+        <v>28934</v>
       </c>
     </row>
     <row r="11">
@@ -1816,40 +1816,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25699</v>
+        <v>26147</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>42785</v>
+        <v>43142</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>44641</v>
+        <v>45415</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>44304</v>
+        <v>43288</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7531</v>
+        <v>7678</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>11726</v>
+        <v>12468</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14416</v>
+        <v>15041</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>19556</v>
+        <v>20441</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>29751</v>
+        <v>28089</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>48015</v>
+        <v>48204</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>53563</v>
+        <v>54514</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>57725</v>
+        <v>57716</v>
       </c>
     </row>
     <row r="12">
@@ -1952,40 +1952,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8598</v>
+        <v>8492</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>27227</v>
+        <v>26219</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12516</v>
+        <v>12506</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>17592</v>
+        <v>17761</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2054</v>
+        <v>2072</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5097</v>
+        <v>5556</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>9585</v>
+        <v>9362</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>30975</v>
+        <v>30192</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>16679</v>
+        <v>16618</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>27291</v>
+        <v>26511</v>
       </c>
     </row>
     <row r="15">
@@ -1996,40 +1996,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24421</v>
+        <v>23439</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>54817</v>
+        <v>52124</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33142</v>
+        <v>33244</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40863</v>
+        <v>42453</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7523</v>
+        <v>5946</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9001</v>
+        <v>9218</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11546</v>
+        <v>13238</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>21542</v>
+        <v>21035</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>26025</v>
+        <v>26073</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>57845</v>
+        <v>57254</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>38491</v>
+        <v>40113</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>55496</v>
+        <v>55422</v>
       </c>
     </row>
     <row r="16">
@@ -2132,40 +2132,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8577</v>
+        <v>9494</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>29375</v>
+        <v>31149</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>27434</v>
+        <v>27015</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31587</v>
+        <v>32479</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4369</v>
+        <v>4058</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5569</v>
+        <v>4892</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12179</v>
+        <v>12162</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2331</v>
+        <v>2399</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>16136</v>
+        <v>16345</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>38890</v>
+        <v>39645</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>43806</v>
+        <v>44216</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>37100</v>
+        <v>36381</v>
       </c>
     </row>
     <row r="19">
@@ -2176,40 +2176,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>24709</v>
+        <v>26462</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>57372</v>
+        <v>56784</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>51306</v>
+        <v>52330</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>60773</v>
+        <v>60521</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17936</v>
+        <v>17025</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>20096</v>
+        <v>20811</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>30680</v>
+        <v>30899</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>14337</v>
+        <v>16068</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>37170</v>
+        <v>37152</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>69449</v>
+        <v>70214</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>74798</v>
+        <v>74191</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>68765</v>
+        <v>68307</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>37771</v>
+        <v>38856</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>115342</v>
+        <v>115844</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>85900</v>
+        <v>85508</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>87897</v>
+        <v>89381</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6696</v>
+        <v>7131</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>14226</v>
+        <v>13992</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>27409</v>
+        <v>25898</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>22011</v>
+        <v>21104</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>50776</v>
+        <v>48652</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>134424</v>
+        <v>136379</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>120886</v>
+        <v>120588</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>118261</v>
+        <v>114188</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>65695</v>
+        <v>67536</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>163239</v>
+        <v>162422</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>128430</v>
+        <v>127807</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>133395</v>
+        <v>133237</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>23076</v>
+        <v>23416</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>35388</v>
+        <v>34649</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>52163</v>
+        <v>51414</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>47850</v>
+        <v>45190</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>83542</v>
+        <v>82676</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>188089</v>
+        <v>186957</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>169527</v>
+        <v>167944</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>169370</v>
+        <v>167633</v>
       </c>
     </row>
     <row r="24">
